--- a/biology/Botanique/Pinus_yunnanensis/Pinus_yunnanensis.xlsx
+++ b/biology/Botanique/Pinus_yunnanensis/Pinus_yunnanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pinus yunnanensis (son nom provient de la province du Yunnan, en Chine) est une espèce de conifères de la famille des Pinaceae, poussant entre 600 et 3000 mètres d'altitude, sur le plateau tibétain au Nord la province du Yunnan, il s'étend vers le Nord dans la province du Sichuan et plus au Sud, jusqu'au Nord de la Birmanie. Il s'étend également dans des régions abritant traditionnellement des feuillus[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pinus yunnanensis (son nom provient de la province du Yunnan, en Chine) est une espèce de conifères de la famille des Pinaceae, poussant entre 600 et 3000 mètres d'altitude, sur le plateau tibétain au Nord la province du Yunnan, il s'étend vers le Nord dans la province du Sichuan et plus au Sud, jusqu'au Nord de la Birmanie. Il s'étend également dans des régions abritant traditionnellement des feuillus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est localement appelée, en Chine : Pin du Yunnan (chinois simplifié : 云南松 ; pinyin : Yúnnán sōng), « Pin Qing » (青松, Qīng sōng), « Pin volant » (飞松, fēi sōng), « Pin à poils longs » (长毛松, chángmáo sōng).
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus yunnanensis pousse entre 600 et 3000 mètres d'altitude, sur le plateau tibétain au Nord la province du Yunnan, il s'étend vers le Nord dans la province du Sichuan et plus au Sud, jusqu'au Nord de la Birmanie.
 </t>
@@ -573,14 +589,16 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 août 2014)[3] et World Checklist of Selected Plant Families (WCSP)  (10 août 2014)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 août 2014) et World Checklist of Selected Plant Families (WCSP)  (10 août 2014) :
 variété Pinus yunnanensis var. pygmaea (Hsueh f.) Hsueh f. (1978)
 variété Pinus yunnanensis var. yunnanensis
-Selon The Plant List            (10 août 2014)[5] :
+Selon The Plant List            (10 août 2014) :
 variété Pinus yunnanensis var. pygmaea (Hsueh f.) Hsueh f.
-Selon Tropicos                                           (10 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Pinus yunnanensis var. pygmaea (J.R. Xue) J.R. Xue
 variété Pinus yunnanensis var. tenuifolia W.C. Cheng &amp; Y.W. Law
 variété Pinus yunnanensis var. yunnanensis</t>
